--- a/clstrvol.xlsx
+++ b/clstrvol.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="clstrvol" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clstrvol" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,123 +424,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>cluster1</t>
+          <t>['cluster2']</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sql1_db1</t>
+          <t>vol1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>svm1_cluster1</t>
+          <t>svm21</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cluster1</t>
+          <t>['cluster2']</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sql1_log</t>
+          <t>vol2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>svm1_cluster1</t>
+          <t>svm21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cluster1</t>
+          <t>['cluster2']</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sql1_system_db</t>
+          <t>vol3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>svm1_cluster1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cluster1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>svm1_cluster1_root</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>svm1_cluster1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>cluster2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sql1_db1_dest</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>svm1_cluster2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>cluster2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sql1_log_dest</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>svm1_cluster2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>cluster2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>NetApp</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>svm1_cluster2</t>
+          <t>svm21</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>